--- a/known_bugs.xlsx
+++ b/known_bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanwahrer/Desktop/Msc/Hiwi-Job Nieselt/DESeq/Shiny_DESeq2_Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FBACA8-821E-9C43-A3BA-B30F42A61365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730A1DFC-DF7B-AD42-B0F9-7E8C94B39D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36060" yWindow="2820" windowWidth="28040" windowHeight="17000" xr2:uid="{EC5C3CE8-4CEB-B64F-8DC2-9554175FFEAE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Consequences</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Annoying</t>
+  </si>
+  <si>
+    <t>Additional Notes</t>
+  </si>
+  <si>
+    <t>For now: In case you want to start a new analysis without having to close shiny, just refresh the app (refresh-button is at the very top of the window, next to 'open in browser'-button)</t>
   </si>
 </sst>
 </file>
@@ -421,7 +427,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,7 +446,9 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -452,6 +460,9 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -462,6 +473,9 @@
       </c>
       <c r="C3" t="s">
         <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
